--- a/Preventivo.xlsx
+++ b/Preventivo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\Epicode\Esercizi\Consegna S1-L5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E7B96F-4D07-4265-8415-DFD7611DD19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B63380-6364-4C14-93DE-C31D28AAE138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30F4C295-B35D-4BF5-9C41-C0A1E1B2D0BC}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>Cat 6 100 metri</t>
   </si>
   <si>
-    <t>Cisco - WS-C2960CX-8PC-L - 2960-CX -</t>
-  </si>
-  <si>
     <t>Oggetto</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>Numero Totale</t>
+  </si>
+  <si>
+    <t>Cisco Business CBS220-48T-4G Smart Switch</t>
   </si>
 </sst>
 </file>
@@ -143,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -153,6 +153,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -169,6 +172,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1847850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>663223</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9144E7D-8D1C-5A63-B951-D03AECB10385}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="1333500"/>
+          <a:ext cx="1600200" cy="596548"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1924050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1724069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5F4469D-F28D-50F4-641F-68713EEB8919}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2390775" y="2038350"/>
+          <a:ext cx="1647825" cy="1685969"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2126726</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>676274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE938F05-506F-1859-1560-3DAA0A6D3705}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="447675"/>
+          <a:ext cx="2088626" cy="609599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,174 +608,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69491353-8BAD-4131-AB8D-7588EA918176}">
-  <dimension ref="B2:G10"/>
+  <dimension ref="B2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4">
+        <v>340</v>
+      </c>
+      <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
+      <c r="G3" s="4">
+        <f>F3*8</f>
+        <v>8</v>
+      </c>
+      <c r="H3" s="4">
+        <f>E3*G3</f>
+        <v>2720</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
-        <v>664.5</v>
-      </c>
-      <c r="E3" s="1">
+    <row r="4" spans="2:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>350</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G7" si="0">F4*8</f>
+        <v>8</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H7" si="1">E4*G4</f>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4">
+        <v>550</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="1"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4">
+        <v>70</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
+        <f>F6*8</f>
+        <v>40</v>
+      </c>
+      <c r="H6" s="4">
+        <f>E6*G6</f>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1">
-        <f>E3*8</f>
-        <v>48</v>
-      </c>
-      <c r="G3" s="1">
-        <f>D3*F3</f>
-        <v>31896</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>349</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" ref="F4:F7" si="0">E4*8</f>
-        <v>8</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G7" si="1">D4*F4</f>
-        <v>2792</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <v>547.66999999999996</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>8762.7199999999993</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1">
-        <v>70</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1">
-        <f>E6*8</f>
-        <v>40</v>
-      </c>
-      <c r="G6" s="1">
-        <f>D6*F6</f>
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
         <v>1000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="4">
         <v>30</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="4">
         <f t="shared" si="1"/>
         <v>240000</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
         <v>3500</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D10" s="3"/>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1">
-        <f>SUM(G3:G8)</f>
-        <v>289750.71999999997</v>
+      <c r="E10" s="3"/>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SUM(H3:H8)</f>
+        <v>256220</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Preventivo.xlsx
+++ b/Preventivo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\Epicode\Esercizi\Consegna S1-L5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B63380-6364-4C14-93DE-C31D28AAE138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C10C96B-B571-46BC-9711-11B2B065EB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30F4C295-B35D-4BF5-9C41-C0A1E1B2D0BC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Switch</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Cisco Business CBS220-48T-4G Smart Switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budget </t>
+  </si>
+  <si>
+    <t>Budget Rimanente</t>
   </si>
 </sst>
 </file>
@@ -608,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69491353-8BAD-4131-AB8D-7588EA918176}">
-  <dimension ref="B2:H10"/>
+  <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,12 +781,29 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="4">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H11" s="1">
         <f>SUM(H3:H8)</f>
         <v>256220</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4">
+        <f>H10-H11</f>
+        <v>43780</v>
       </c>
     </row>
   </sheetData>

--- a/Preventivo.xlsx
+++ b/Preventivo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\Epicode\Esercizi\Consegna S1-L5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C10C96B-B571-46BC-9711-11B2B065EB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11828393-06AA-412B-A8B2-36FEC29D7621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30F4C295-B35D-4BF5-9C41-C0A1E1B2D0BC}"/>
   </bookViews>
@@ -617,7 +617,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,16 +686,13 @@
       <c r="E4" s="4">
         <v>350</v>
       </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:G7" si="0">F4*8</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H7" si="1">E4*G4</f>
-        <v>2800</v>
+        <f t="shared" ref="H4:H7" si="0">E4*G4</f>
+        <v>1050</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -713,11 +710,11 @@
         <v>1</v>
       </c>
       <c r="G5" s="4">
+        <f t="shared" ref="G4:G7" si="1">F5*8</f>
+        <v>8</v>
+      </c>
+      <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="1"/>
         <v>4400</v>
       </c>
     </row>
@@ -757,11 +754,11 @@
         <v>30</v>
       </c>
       <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="1"/>
         <v>240000</v>
       </c>
     </row>
@@ -794,7 +791,7 @@
       </c>
       <c r="H11" s="1">
         <f>SUM(H3:H8)</f>
-        <v>256220</v>
+        <v>254470</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -803,7 +800,7 @@
       </c>
       <c r="H12" s="4">
         <f>H10-H11</f>
-        <v>43780</v>
+        <v>45530</v>
       </c>
     </row>
   </sheetData>
